--- a/data/Bacterie_sensibilite.xlsx
+++ b/data/Bacterie_sensibilite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\Projet\smart-vap-python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06935F17-90A3-4D81-8C63-BF0556E789C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5624586-16A8-4345-8F1C-1636C002AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -840,11 +840,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -930,6 +945,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12039,8 +12075,8 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -12110,34 +12146,34 @@
       <c r="C2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="66">
         <v>7</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="67">
         <v>6</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="67">
         <v>5</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="67">
         <v>4</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="67">
         <v>3</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="60">
+      <c r="I2" s="68"/>
+      <c r="J2" s="67">
         <v>2</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="69">
         <v>1</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="59" t="s">
@@ -12149,7 +12185,7 @@
       <c r="C3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="70">
         <v>1</v>
       </c>
       <c r="E3" s="61"/>
@@ -12176,11 +12212,15 @@
       <c r="C4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="71">
+        <v>3</v>
+      </c>
+      <c r="E4" s="60">
+        <v>2</v>
+      </c>
+      <c r="F4" s="62">
         <v>1</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
       <c r="G4" s="61"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -12203,15 +12243,11 @@
       <c r="C5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="60">
-        <v>3</v>
-      </c>
-      <c r="E5" s="60">
-        <v>2</v>
-      </c>
-      <c r="F5" s="62">
+      <c r="D5" s="70">
         <v>1</v>
       </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="61"/>
       <c r="H5" s="61"/>
       <c r="I5" s="61"/>
@@ -12234,7 +12270,7 @@
       <c r="C6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="71">
         <v>4</v>
       </c>
       <c r="E6" s="60">
@@ -12267,7 +12303,7 @@
       <c r="C7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="70">
         <v>1</v>
       </c>
       <c r="E7" s="61"/>
@@ -12294,7 +12330,7 @@
       <c r="C8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="61"/>
       <c r="F8" s="61"/>
       <c r="G8" s="61"/>
@@ -12321,7 +12357,7 @@
       <c r="C9" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="71">
         <v>9</v>
       </c>
       <c r="E9" s="60">
@@ -12364,7 +12400,7 @@
       <c r="C10" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="71">
         <v>6</v>
       </c>
       <c r="E10" s="60">
@@ -12401,7 +12437,7 @@
       <c r="C11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="71">
         <v>9</v>
       </c>
       <c r="E11" s="60">
@@ -12444,7 +12480,7 @@
       <c r="C12" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="71">
         <v>11</v>
       </c>
       <c r="E12" s="60">
@@ -12491,7 +12527,7 @@
       <c r="C13" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="71">
         <v>11</v>
       </c>
       <c r="E13" s="60">
@@ -12538,7 +12574,7 @@
       <c r="C14" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="71">
         <v>11</v>
       </c>
       <c r="E14" s="60">
@@ -12581,7 +12617,7 @@
       <c r="C15" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="71">
         <v>11</v>
       </c>
       <c r="E15" s="60">
@@ -12628,7 +12664,7 @@
       <c r="C16" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="71">
         <v>11</v>
       </c>
       <c r="E16" s="60">
@@ -12675,7 +12711,7 @@
       <c r="C17" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="71">
         <v>11</v>
       </c>
       <c r="E17" s="60">
@@ -12722,7 +12758,7 @@
       <c r="C18" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="71">
         <v>6</v>
       </c>
       <c r="E18" s="60">
@@ -12759,7 +12795,7 @@
       <c r="C19" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="61"/>
       <c r="F19" s="60">
         <v>11</v>
@@ -12806,7 +12842,7 @@
       <c r="C20" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="71">
         <v>12</v>
       </c>
       <c r="E20" s="60">
@@ -12855,7 +12891,7 @@
       <c r="C21" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="71">
         <v>12</v>
       </c>
       <c r="E21" s="60">
@@ -12904,7 +12940,7 @@
       <c r="C22" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="71">
         <v>12</v>
       </c>
       <c r="E22" s="60">
@@ -12953,7 +12989,7 @@
       <c r="C23" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="71">
         <v>11</v>
       </c>
       <c r="E23" s="60">
@@ -13000,7 +13036,7 @@
       <c r="C24" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="61"/>
       <c r="F24" s="61"/>
       <c r="G24" s="61"/>
@@ -13027,7 +13063,7 @@
       <c r="C25" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
       <c r="G25" s="61"/>
@@ -13054,7 +13090,7 @@
       <c r="C26" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="61"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
